--- a/results/Summary.xlsx
+++ b/results/Summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13460" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="660" windowWidth="24960" windowHeight="13460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>oes10</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>RMSE</t>
-  </si>
-  <si>
-    <t>WRMSE</t>
   </si>
   <si>
     <t>GA-HMC</t>
@@ -103,19 +100,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -133,26 +121,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -435,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,424 +429,234 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
-        <v>650.42012624999995</v>
-      </c>
-      <c r="C3" s="5">
-        <v>6743743.0761000002</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1564.21987625</v>
-      </c>
-      <c r="E3" s="6">
-        <v>2.6610024999999902</v>
-      </c>
-      <c r="F3" s="7">
-        <v>399.89344999999997</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1754907.6286124999</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1027.8506500000001</v>
-      </c>
-      <c r="I3" s="9">
-        <v>1027.8506500000001</v>
-      </c>
-      <c r="J3" s="4">
-        <v>434.58212500000002</v>
-      </c>
-      <c r="K3" s="4">
-        <v>2389361.692425</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1138.7908625</v>
-      </c>
-      <c r="M3" s="4">
-        <v>1138.7908625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5">
+        <v>374.58688124999998</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2313779.8523374898</v>
+      </c>
+      <c r="G3" s="6">
+        <v>989.58540624999898</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
-        <v>523.70876874999897</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2295784.4738375</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1091.0944562499999</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.91427499999999995</v>
-      </c>
-      <c r="F4" s="7">
-        <v>271.56041249999998</v>
-      </c>
-      <c r="G4" s="5">
-        <v>629090.45065000001</v>
-      </c>
-      <c r="H4" s="8">
-        <v>526.45302500000003</v>
-      </c>
-      <c r="I4" s="9">
-        <v>526.45302500000003</v>
-      </c>
-      <c r="J4" s="4">
-        <v>2171.8461625</v>
-      </c>
-      <c r="K4" s="4">
-        <v>28491764.1405375</v>
-      </c>
-      <c r="L4" s="4">
-        <v>5247.4726624999903</v>
-      </c>
-      <c r="M4" s="4">
-        <v>5247.4726624999903</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5">
+        <v>403.3454625</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1207267.49126875</v>
+      </c>
+      <c r="G4" s="6">
+        <v>786.81573749999995</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5">
-        <v>51.483292499999997</v>
-      </c>
-      <c r="C5" s="5">
-        <v>5223.0651349999998</v>
-      </c>
-      <c r="D5" s="5">
-        <v>57.898022500000003</v>
-      </c>
-      <c r="E5" s="6">
-        <v>18.644547499999899</v>
-      </c>
-      <c r="F5" s="7">
-        <v>21.263824999999901</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1246.20813749999</v>
-      </c>
-      <c r="H5" s="8">
-        <v>29.212949999999999</v>
-      </c>
-      <c r="I5" s="9">
-        <v>29.212949999999999</v>
-      </c>
-      <c r="J5" s="4">
-        <v>107.47392499999999</v>
-      </c>
-      <c r="K5" s="4">
-        <v>15553.031224999901</v>
-      </c>
-      <c r="L5" s="4">
-        <v>114.490725</v>
-      </c>
-      <c r="M5" s="4">
-        <v>114.490725</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5">
+        <v>20.4524749999999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1153.7918875</v>
+      </c>
+      <c r="G5" s="6">
+        <v>27.975674999999999</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5">
-        <v>48.202739999999999</v>
-      </c>
-      <c r="C6" s="5">
-        <v>4652.1901349999998</v>
-      </c>
-      <c r="D6" s="5">
-        <v>54.507257500000001</v>
-      </c>
-      <c r="E6" s="6">
-        <v>15.126545</v>
-      </c>
-      <c r="F6" s="7">
-        <v>21.256374999999998</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1245.9358625</v>
-      </c>
-      <c r="H6" s="8">
-        <v>29.209162500000001</v>
-      </c>
-      <c r="I6" s="9">
-        <v>29.209162500000001</v>
-      </c>
-      <c r="J6" s="4">
-        <v>107.4635</v>
-      </c>
-      <c r="K6" s="4">
-        <v>15553.146387500001</v>
-      </c>
-      <c r="L6" s="4">
-        <v>114.49905</v>
-      </c>
-      <c r="M6" s="4">
-        <v>114.49905</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5">
+        <v>20.419362499999998</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1153.6087124999999</v>
+      </c>
+      <c r="G6" s="6">
+        <v>27.9674625</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8">
-        <v>48.020157500000003</v>
-      </c>
-      <c r="C7" s="8">
-        <v>3530.4742925</v>
-      </c>
-      <c r="D7" s="8">
-        <v>57.819956249999997</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1.1714475</v>
-      </c>
-      <c r="F7" s="10">
-        <v>158.720225</v>
-      </c>
-      <c r="G7" s="5">
-        <v>45103.352549999901</v>
-      </c>
-      <c r="H7" s="5">
-        <v>205.54108749999901</v>
-      </c>
-      <c r="I7" s="9">
-        <v>205.54108749999901</v>
-      </c>
-      <c r="J7" s="4">
-        <v>264.22800000000001</v>
-      </c>
-      <c r="K7" s="4">
-        <v>123990.604274999</v>
-      </c>
-      <c r="L7" s="4">
-        <v>314.3193</v>
-      </c>
-      <c r="M7" s="4">
-        <v>314.3193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7">
+        <v>122.34924375</v>
+      </c>
+      <c r="F7" s="4">
+        <v>26345.444649999899</v>
+      </c>
+      <c r="G7" s="4">
+        <v>157.25221250000001</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="8">
-        <v>69.113041428571407</v>
-      </c>
-      <c r="C8" s="8">
-        <v>10815.69594</v>
-      </c>
-      <c r="D8" s="8">
-        <v>80.576098571428503</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1.23598428571428</v>
-      </c>
-      <c r="F8" s="10">
-        <v>235.35588749999999</v>
-      </c>
-      <c r="G8" s="5">
-        <v>99210.256187499996</v>
-      </c>
-      <c r="H8" s="5">
-        <v>304.3467</v>
-      </c>
-      <c r="I8" s="9">
-        <v>304.3467</v>
-      </c>
-      <c r="J8" s="4">
-        <v>291.14602500000001</v>
-      </c>
-      <c r="K8" s="4">
-        <v>139124.37526249999</v>
-      </c>
-      <c r="L8" s="4">
-        <v>351.97262499999999</v>
-      </c>
-      <c r="M8" s="4">
-        <v>351.97262499999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7">
+        <v>177.19749375000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>51140.887881249997</v>
+      </c>
+      <c r="G8" s="4">
+        <v>221.43262499999901</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
-        <v>0.855278571428571</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2.1170642857142798</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1.4170499999999999</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1.1566642857142799</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0.82252499999999995</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1.8670249999999999</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1.3341750000000001</v>
-      </c>
-      <c r="I9" s="9">
-        <v>1.3341750000000001</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1.18485</v>
-      </c>
-      <c r="K9" s="4">
-        <v>3.1681124999999999</v>
-      </c>
-      <c r="L9" s="4">
-        <v>1.7774749999999899</v>
-      </c>
-      <c r="M9" s="4">
-        <v>1.7774749999999899</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="4">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5">
+        <v>0.82777142857142805</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1.31165714285714</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1.1113285714285699</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="e">
         <f>AVERAGE(B3:B9)</f>
-        <v>198.82905785714271</v>
-      </c>
-      <c r="C10" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C10" s="3" t="e">
         <f>AVERAGE(C3:C9)</f>
-        <v>1294821.5846434694</v>
-      </c>
-      <c r="D10" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="3" t="e">
         <f>AVERAGE(D3:D9)</f>
-        <v>415.36181676020408</v>
-      </c>
-      <c r="E10" s="11">
-        <f>AVERAGE(E3:E9)</f>
-        <v>5.84435229591835</v>
-      </c>
-      <c r="F10" s="11">
-        <f t="shared" ref="F10:M10" si="0">AVERAGE(F3:F9)</f>
-        <v>158.4103857142857</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="0"/>
-        <v>361543.6712892857</v>
-      </c>
-      <c r="H10" s="11">
-        <f t="shared" si="0"/>
-        <v>303.42110714285707</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="0"/>
-        <v>303.42110714285707</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>482.56065535714282</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="0"/>
-        <v>4453621.4511749996</v>
-      </c>
-      <c r="L10" s="11">
-        <f t="shared" si="0"/>
-        <v>1040.47467142857</v>
-      </c>
-      <c r="M10" s="4">
-        <f t="shared" si="0"/>
-        <v>1040.47467142857</v>
-      </c>
-    </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L24" t="s">
-        <v>14</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/Summary.xlsx
+++ b/results/Summary.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/basgalupp/Dropbox/Github/Clus-Hyper-Code/results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26722"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="660" windowWidth="24960" windowHeight="13460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -198,7 +193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -233,7 +228,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -410,7 +405,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -421,10 +416,10 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -436,7 +431,7 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
@@ -453,7 +448,7 @@
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -482,13 +477,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3">
+        <v>367.38182499999903</v>
+      </c>
+      <c r="C3">
+        <v>2740869.254675</v>
+      </c>
+      <c r="D3">
+        <v>1079.3530625000001</v>
+      </c>
       <c r="E3" s="5">
         <v>374.58688124999998</v>
       </c>
@@ -502,13 +503,19 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4">
+        <v>384.23402499999997</v>
+      </c>
+      <c r="C4">
+        <v>1275424.09139999</v>
+      </c>
+      <c r="D4">
+        <v>798.935599999999</v>
+      </c>
       <c r="E4" s="5">
         <v>403.3454625</v>
       </c>
@@ -522,13 +529,19 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6"/>
+      <c r="B5">
+        <v>20.197437499999999</v>
+      </c>
+      <c r="C5">
+        <v>921.92642499999999</v>
+      </c>
+      <c r="D5">
+        <v>26.81195</v>
+      </c>
       <c r="E5" s="5">
         <v>20.4524749999999</v>
       </c>
@@ -542,13 +555,19 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6">
+        <v>24.247624999999999</v>
+      </c>
+      <c r="C6">
+        <v>1113.2596624999901</v>
+      </c>
+      <c r="D6">
+        <v>29.6067</v>
+      </c>
       <c r="E6" s="5">
         <v>20.419362499999998</v>
       </c>
@@ -562,7 +581,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -582,7 +601,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -602,13 +621,19 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9">
+        <v>0.80096428571428502</v>
+      </c>
+      <c r="C9">
+        <v>1.19293571428571</v>
+      </c>
+      <c r="D9">
+        <v>1.05763571428571</v>
+      </c>
       <c r="E9" s="5">
         <v>0.82777142857142805</v>
       </c>
@@ -622,18 +647,18 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="e">
+    <row r="10" spans="1:10">
+      <c r="B10" s="3">
         <f>AVERAGE(B3:B9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C10" s="3" t="e">
+        <v>159.37237535714263</v>
+      </c>
+      <c r="C10" s="3">
         <f>AVERAGE(C3:C9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="3" t="e">
+        <v>803665.94501964096</v>
+      </c>
+      <c r="D10" s="3">
         <f>AVERAGE(D3:D9)</f>
-        <v>#DIV/0!</v>
+        <v>387.15298964285699</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="3"/>
@@ -642,12 +667,12 @@
       <c r="I10" s="3"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="10:10">
       <c r="J18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="10:10">
       <c r="J24" t="s">
         <v>13</v>
       </c>
@@ -659,5 +684,10 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/results/Summary.xlsx
+++ b/results/Summary.xlsx
@@ -116,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -136,6 +136,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,7 +407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -416,7 +418,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -481,7 +483,7 @@
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>367.38182499999903</v>
       </c>
       <c r="C3">
@@ -493,7 +495,7 @@
       <c r="E3" s="5">
         <v>374.58688124999998</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>2313779.8523374898</v>
       </c>
       <c r="G3" s="6">
@@ -507,7 +509,7 @@
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>384.23402499999997</v>
       </c>
       <c r="C4">
@@ -519,7 +521,7 @@
       <c r="E4" s="5">
         <v>403.3454625</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>1207267.49126875</v>
       </c>
       <c r="G4" s="6">
@@ -533,22 +535,22 @@
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>20.197437499999999</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>921.92642499999999</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="9">
         <v>26.81195</v>
       </c>
       <c r="E5" s="5">
         <v>20.4524749999999</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="13">
         <v>1153.7918875</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="13">
         <v>27.975674999999999</v>
       </c>
       <c r="H5" s="3"/>
@@ -625,22 +627,22 @@
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="9">
         <v>0.80096428571428502</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <v>1.19293571428571</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="9">
         <v>1.05763571428571</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="14">
         <v>0.82777142857142805</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="13">
         <v>1.31165714285714</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="13">
         <v>1.1113285714285699</v>
       </c>
       <c r="H9" s="3"/>

--- a/results/Summary.xlsx
+++ b/results/Summary.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>oes10</t>
   </si>
@@ -64,13 +64,22 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Training set</t>
+  </si>
+  <si>
+    <t>Test set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,6 +91,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,20 +138,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -136,10 +174,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -407,7 +465,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -415,277 +473,562 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="12" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="B2" s="1" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="9" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B4" s="14">
         <v>367.38182499999903</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="14">
         <v>2740869.254675</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="14">
         <v>1079.3530625000001</v>
       </c>
-      <c r="E3" s="5">
-        <v>374.58688124999998</v>
-      </c>
-      <c r="F3" s="6">
-        <v>2313779.8523374898</v>
-      </c>
-      <c r="G3" s="6">
-        <v>989.58540624999898</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="9" t="s">
+      <c r="E4" s="6">
+        <v>367.38182499999903</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2740869.254675</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1079.3530625000001</v>
+      </c>
+      <c r="H4" s="14">
+        <v>710.24770000000001</v>
+      </c>
+      <c r="I4" s="14">
+        <v>8812860.6211374998</v>
+      </c>
+      <c r="J4" s="14">
+        <v>1689.58894375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B5" s="14">
         <v>384.23402499999997</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="14">
         <v>1275424.09139999</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="14">
         <v>798.935599999999</v>
       </c>
-      <c r="E4" s="5">
-        <v>403.3454625</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1207267.49126875</v>
-      </c>
-      <c r="G4" s="6">
-        <v>786.81573749999995</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="9" t="s">
+      <c r="E5" s="6">
+        <v>384.23402499999997</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1275424.09139999</v>
+      </c>
+      <c r="G5" s="5">
+        <v>798.935599999999</v>
+      </c>
+      <c r="H5" s="14">
+        <v>1597.81111249999</v>
+      </c>
+      <c r="I5" s="14">
+        <v>11577824.1496937</v>
+      </c>
+      <c r="J5" s="14">
+        <v>3252.7846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B6" s="14">
         <v>20.197437499999999</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C6" s="14">
         <v>921.92642499999999</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D6" s="14">
         <v>26.81195</v>
       </c>
-      <c r="E5" s="5">
-        <v>20.4524749999999</v>
-      </c>
-      <c r="F5" s="13">
-        <v>1153.7918875</v>
-      </c>
-      <c r="G5" s="13">
-        <v>27.975674999999999</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>24.247624999999999</v>
-      </c>
-      <c r="C6">
-        <v>1113.2596624999901</v>
-      </c>
-      <c r="D6">
-        <v>29.6067</v>
-      </c>
-      <c r="E6" s="5">
-        <v>20.419362499999998</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1153.6087124999999</v>
-      </c>
-      <c r="G6" s="6">
-        <v>27.9674625</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="E6" s="6">
+        <v>20.197437499999999</v>
+      </c>
+      <c r="F6" s="5">
+        <v>921.92642499999999</v>
+      </c>
+      <c r="G6" s="5">
+        <v>26.81195</v>
+      </c>
+      <c r="H6" s="14">
+        <v>106.113599999999</v>
+      </c>
+      <c r="I6" s="14">
+        <v>14999.432687500001</v>
+      </c>
+      <c r="J6" s="14">
+        <v>111.77894999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7">
-        <v>122.34924375</v>
-      </c>
-      <c r="F7" s="4">
-        <v>26345.444649999899</v>
-      </c>
-      <c r="G7" s="4">
-        <v>157.25221250000001</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="B7" s="14">
+        <v>24.247624999999999</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1113.2596624999901</v>
+      </c>
+      <c r="D7" s="14">
+        <v>29.6067</v>
+      </c>
+      <c r="E7" s="6">
+        <v>24.247624999999999</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1113.2596624999901</v>
+      </c>
+      <c r="G7" s="5">
+        <v>29.6067</v>
+      </c>
+      <c r="H7" s="14">
+        <v>110.00916249999899</v>
+      </c>
+      <c r="I7" s="14">
+        <v>15471.506762499999</v>
+      </c>
+      <c r="J7" s="14">
+        <v>114.43806249999901</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7">
-        <v>177.19749375000001</v>
-      </c>
-      <c r="F8" s="4">
-        <v>51140.887881249997</v>
-      </c>
-      <c r="G8" s="4">
-        <v>221.43262499999901</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="9" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B10" s="14">
         <v>0.80096428571428502</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C10" s="14">
         <v>1.19293571428571</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="14">
         <v>1.05763571428571</v>
       </c>
-      <c r="E9" s="14">
-        <v>0.82777142857142805</v>
-      </c>
-      <c r="F9" s="13">
-        <v>1.31165714285714</v>
-      </c>
-      <c r="G9" s="13">
-        <v>1.1113285714285699</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="3">
-        <f>AVERAGE(B3:B9)</f>
+      <c r="E10" s="6">
+        <v>0.80096428571428502</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1.19293571428571</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1.05763571428571</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0.97367857142857095</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1.60624285714285</v>
+      </c>
+      <c r="J10" s="14">
+        <v>1.2543142857142799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="14">
+        <f>AVERAGE(B4:B10)</f>
         <v>159.37237535714263</v>
       </c>
-      <c r="C10" s="3">
-        <f>AVERAGE(C3:C9)</f>
+      <c r="C11" s="14">
+        <f>AVERAGE(C4:C10)</f>
         <v>803665.94501964096</v>
       </c>
-      <c r="D10" s="3">
-        <f>AVERAGE(D3:D9)</f>
+      <c r="D11" s="14">
+        <f>AVERAGE(D4:D10)</f>
         <v>387.15298964285699</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="18" spans="10:10">
-      <c r="J18" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="6">
+        <v>116.93969999999899</v>
+      </c>
+      <c r="F18" s="5">
+        <v>76890.851037500004</v>
+      </c>
+      <c r="G18" s="5">
+        <v>235.61802499999999</v>
+      </c>
+      <c r="H18" s="14">
+        <v>48.4027999999999</v>
+      </c>
+      <c r="I18" s="14">
+        <v>9819.8498999999993</v>
+      </c>
+      <c r="J18" s="14">
+        <v>99.095199999999906</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="6">
+        <v>212.83745625</v>
+      </c>
+      <c r="F19" s="5">
+        <v>269086.01754375</v>
+      </c>
+      <c r="G19" s="5">
+        <v>411.64030000000002</v>
+      </c>
+      <c r="H19" s="14">
+        <v>265.04590000000002</v>
+      </c>
+      <c r="I19" s="14">
+        <v>557008.48010000004</v>
+      </c>
+      <c r="J19" s="14">
+        <v>746.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10">
+        <v>0.25674999999999998</v>
+      </c>
+      <c r="F20" s="10">
+        <v>2.4266874999999999</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1.2216</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.39950000000000002</v>
+      </c>
+      <c r="I20" s="5">
+        <v>2.2479</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1.4993000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="6">
+        <v>0.63259999999999905</v>
+      </c>
+      <c r="F21" s="5">
+        <v>6.8475374999999996</v>
+      </c>
+      <c r="G21" s="5">
+        <v>2.1141125000000001</v>
+      </c>
+      <c r="H21" s="14">
+        <v>1.0053000000000001</v>
+      </c>
+      <c r="I21" s="14">
+        <v>11.7155</v>
+      </c>
+      <c r="J21" s="14">
+        <v>3.4227999999999899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="6">
+        <v>0.46364285714285702</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.41789285714285701</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.62954285714285696</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0.4778</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0.406799999999999</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0.63780000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="J25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="10:10">
-      <c r="J24" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/results/Summary.xlsx
+++ b/results/Summary.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="660" windowWidth="24960" windowHeight="13460" tabRatio="500"/>
+    <workbookView xWindow="12780" yWindow="3000" windowWidth="24960" windowHeight="13460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Regression" sheetId="1" r:id="rId1"/>
+    <sheet name="Classification" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
   <si>
     <t>oes10</t>
   </si>
@@ -70,6 +71,33 @@
   </si>
   <si>
     <t>Test set</t>
+  </si>
+  <si>
+    <t>emotions</t>
+  </si>
+  <si>
+    <t>flags</t>
+  </si>
+  <si>
+    <t>LABELSET</t>
+  </si>
+  <si>
+    <t>ITERATIVE</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>WMSE</t>
+  </si>
+  <si>
+    <t>genbase</t>
   </si>
 </sst>
 </file>
@@ -138,8 +166,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -165,17 +201,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -184,20 +217,31 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -475,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -493,35 +537,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="13" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="1" t="s">
@@ -556,13 +600,13 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="11">
         <v>367.38182499999903</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>2740869.254675</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="11">
         <v>1079.3530625000001</v>
       </c>
       <c r="E4" s="6">
@@ -574,13 +618,13 @@
       <c r="G4" s="5">
         <v>1079.3530625000001</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="11">
         <v>710.24770000000001</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="11">
         <v>8812860.6211374998</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="11">
         <v>1689.58894375</v>
       </c>
     </row>
@@ -588,13 +632,13 @@
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>384.23402499999997</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>1275424.09139999</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="11">
         <v>798.935599999999</v>
       </c>
       <c r="E5" s="6">
@@ -606,13 +650,13 @@
       <c r="G5" s="5">
         <v>798.935599999999</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="11">
         <v>1597.81111249999</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="11">
         <v>11577824.1496937</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="11">
         <v>3252.7846</v>
       </c>
     </row>
@@ -620,13 +664,13 @@
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>20.197437499999999</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>921.92642499999999</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <v>26.81195</v>
       </c>
       <c r="E6" s="6">
@@ -638,13 +682,13 @@
       <c r="G6" s="5">
         <v>26.81195</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="11">
         <v>106.113599999999</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="11">
         <v>14999.432687500001</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="11">
         <v>111.77894999999999</v>
       </c>
     </row>
@@ -652,13 +696,13 @@
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="11">
         <v>24.247624999999999</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>1113.2596624999901</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="11">
         <v>29.6067</v>
       </c>
       <c r="E7" s="6">
@@ -670,13 +714,13 @@
       <c r="G7" s="5">
         <v>29.6067</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="11">
         <v>110.00916249999899</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="11">
         <v>15471.506762499999</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="11">
         <v>114.43806249999901</v>
       </c>
     </row>
@@ -690,9 +734,9 @@
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
@@ -704,21 +748,21 @@
       <c r="E9" s="6"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <v>0.80096428571428502</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <v>1.19293571428571</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="11">
         <v>1.05763571428571</v>
       </c>
       <c r="E10" s="6">
@@ -730,35 +774,35 @@
       <c r="G10" s="5">
         <v>1.05763571428571</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="11">
         <v>0.97367857142857095</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="11">
         <v>1.60624285714285</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="11">
         <v>1.2543142857142799</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="14">
+      <c r="B11" s="11">
         <f>AVERAGE(B4:B10)</f>
         <v>159.37237535714263</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <f>AVERAGE(C4:C10)</f>
         <v>803665.94501964096</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="11">
         <f>AVERAGE(D4:D10)</f>
         <v>387.15298964285699</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="10"/>
@@ -794,35 +838,35 @@
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="15" t="s">
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10">
       <c r="B17" s="7" t="s">
@@ -869,13 +913,13 @@
       <c r="G18" s="5">
         <v>235.61802499999999</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="11">
         <v>48.4027999999999</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="11">
         <v>9819.8498999999993</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="11">
         <v>99.095199999999906</v>
       </c>
     </row>
@@ -895,13 +939,13 @@
       <c r="G19" s="5">
         <v>411.64030000000002</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="11">
         <v>265.04590000000002</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="11">
         <v>557008.48010000004</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="11">
         <v>746.33</v>
       </c>
     </row>
@@ -947,13 +991,13 @@
       <c r="G21" s="5">
         <v>2.1141125000000001</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="11">
         <v>1.0053000000000001</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="11">
         <v>11.7155</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="11">
         <v>3.4227999999999899</v>
       </c>
     </row>
@@ -967,9 +1011,9 @@
       <c r="E22" s="6"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
@@ -981,9 +1025,9 @@
       <c r="E23" s="6"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="3" t="s">
@@ -1035,4 +1079,295 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0.76637476459510301</v>
+      </c>
+      <c r="C3">
+        <v>0.59157448333333296</v>
+      </c>
+      <c r="D3">
+        <v>0.82641726825494399</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>0.69593984962405997</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>1.16201891239116</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>0.90132753739718896</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>1.11145592372489</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.75898995252533896</v>
+      </c>
+      <c r="C17">
+        <v>0.57389190000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.84469714195470602</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.71964396284829701</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>0.984477814359485</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.90053017739584895</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>1.0758974389379501</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>